--- a/app/upload_file/string_admin_послепарсинга_92466127051.xlsx
+++ b/app/upload_file/string_admin_послепарсинга_92466127051.xlsx
@@ -505,27 +505,27 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>00006426YN</t>
-        </is>
+      <c r="B3" t="n">
+        <v>362312</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LISH</t>
+          <t>BBFC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>1024</v>
+        <v>222</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1204</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Нет такого лого среди оригиналов</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -535,21 +535,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362312</v>
+        <v>82026</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BBFC</t>
+          <t>AVRL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -563,27 +563,27 @@
           <t>Peugeot---Citroen</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>82026</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00006426YN</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AVRL</t>
+          <t>LISH</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>1024</v>
       </c>
       <c r="F5" t="n">
-        <v>85</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Нет такого лого среди оригиналов</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1204</v>
       </c>
     </row>
     <row r="6">
